--- a/Project Plan/Project Plan.xlsx
+++ b/Project Plan/Project Plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NeoThokoa\Documents\University Work\2018\COS 700\Research\StylometricsResearch\Project Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1399697-44E3-4AF0-A80A-ED0B72798454}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Project:</t>
   </si>
@@ -132,9 +133,6 @@
     <t>Literature Review</t>
   </si>
   <si>
-    <t>BTBD</t>
-  </si>
-  <si>
     <t>Enhance Literature Review Cycle</t>
   </si>
   <si>
@@ -328,12 +326,18 @@
   </si>
   <si>
     <t>Period 60</t>
+  </si>
+  <si>
+    <t>Expand literature review</t>
+  </si>
+  <si>
+    <t>Learn metaphone algorithms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,17 +531,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -548,10 +552,10 @@
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="5" builtinId="21"/>
-    <cellStyle name="Period Headers" xfId="8"/>
-    <cellStyle name="Project Headers" xfId="7"/>
+    <cellStyle name="Period Headers" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Project Headers" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -570,119 +574,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -732,77 +623,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:BQ39" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:BQ39" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="69">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Current Status"/>
-    <tableColumn id="3" name="Task description"/>
-    <tableColumn id="4" name="Duration"/>
-    <tableColumn id="5" name="Start Date"/>
-    <tableColumn id="6" name="Estimated Finished Date"/>
-    <tableColumn id="7" name="Finish Date"/>
-    <tableColumn id="8" name="Predecessor Tasks"/>
-    <tableColumn id="9" name="Resource Names"/>
-    <tableColumn id="11" name="Period 1"/>
-    <tableColumn id="12" name="Period 2"/>
-    <tableColumn id="13" name="Period 3"/>
-    <tableColumn id="14" name="Period 4"/>
-    <tableColumn id="15" name="Period 5"/>
-    <tableColumn id="16" name="Period 6"/>
-    <tableColumn id="17" name="Period 7"/>
-    <tableColumn id="18" name="Period 8"/>
-    <tableColumn id="19" name="Period 9"/>
-    <tableColumn id="20" name="Period 10"/>
-    <tableColumn id="21" name="Period 11"/>
-    <tableColumn id="22" name="Period 12"/>
-    <tableColumn id="23" name="Period 13"/>
-    <tableColumn id="24" name="Period 14"/>
-    <tableColumn id="25" name="Period 15"/>
-    <tableColumn id="26" name="Period 16"/>
-    <tableColumn id="27" name="Period 17"/>
-    <tableColumn id="28" name="Period 18"/>
-    <tableColumn id="29" name="Period 19"/>
-    <tableColumn id="30" name="Period 20"/>
-    <tableColumn id="31" name="Period 21"/>
-    <tableColumn id="32" name="Period 22"/>
-    <tableColumn id="33" name="Period 23"/>
-    <tableColumn id="34" name="Period 24"/>
-    <tableColumn id="35" name="Period 25"/>
-    <tableColumn id="36" name="Period 26"/>
-    <tableColumn id="37" name="Period 27"/>
-    <tableColumn id="38" name="Period 28"/>
-    <tableColumn id="39" name="Period 29"/>
-    <tableColumn id="40" name="Period 30"/>
-    <tableColumn id="41" name="Period 31"/>
-    <tableColumn id="42" name="Period 32"/>
-    <tableColumn id="43" name="Period 33"/>
-    <tableColumn id="44" name="Period 34"/>
-    <tableColumn id="45" name="Period 35"/>
-    <tableColumn id="46" name="Period 36"/>
-    <tableColumn id="47" name="Period 37"/>
-    <tableColumn id="48" name="Period 38"/>
-    <tableColumn id="49" name="Period 39"/>
-    <tableColumn id="50" name="Period 40"/>
-    <tableColumn id="51" name="Period 41"/>
-    <tableColumn id="52" name="Period 42"/>
-    <tableColumn id="53" name="Period 43"/>
-    <tableColumn id="54" name="Period 44"/>
-    <tableColumn id="55" name="Period 45"/>
-    <tableColumn id="56" name="Period 46"/>
-    <tableColumn id="57" name="Period 47"/>
-    <tableColumn id="58" name="Period 48"/>
-    <tableColumn id="59" name="Period 49"/>
-    <tableColumn id="60" name="Period 50"/>
-    <tableColumn id="61" name="Period 51"/>
-    <tableColumn id="62" name="Period 52"/>
-    <tableColumn id="63" name="Period 53"/>
-    <tableColumn id="64" name="Period 54"/>
-    <tableColumn id="65" name="Period 55"/>
-    <tableColumn id="66" name="Period 56"/>
-    <tableColumn id="67" name="Period 57"/>
-    <tableColumn id="68" name="Period 58"/>
-    <tableColumn id="69" name="Period 59"/>
-    <tableColumn id="70" name="Period 60"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Current Status"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Task description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Duration"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Estimated Finished Date"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Finish Date"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Predecessor Tasks"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Resource Names"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Period 1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Period 2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Period 3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Period 4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Period 5"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Period 6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Period 7"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Period 8"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Period 9"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Period 10"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Period 11"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Period 12"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Period 13"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Period 14"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Period 15"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Period 16"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Period 17"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Period 18"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Period 19"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Period 20"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Period 21"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Period 22"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Period 23"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Period 24"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Period 25"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Period 26"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Period 27"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Period 28"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Period 29"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Period 30"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Period 31"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Period 32"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Period 33"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Period 34"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Period 35"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Period 36"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Period 37"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Period 38"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Period 39"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Period 40"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Period 41"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Period 42"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Period 43"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Period 44"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Period 45"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Period 46"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Period 47"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Period 48"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Period 49"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Period 50"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Period 51"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Period 52"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Period 53"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="Period 54"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Period 55"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Period 56"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="Period 57"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Period 58"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="Period 59"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Period 60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1104,11 +995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,15 +1021,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1146,13 +1037,13 @@
       </c>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
         <v>13</v>
@@ -1199,184 +1090,184 @@
         <v>11</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="S4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="T4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="U4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="V4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="W4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="X4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AE4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AF4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AG4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AH4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AI4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AI4" s="12" t="s">
+      <c r="AJ4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AJ4" s="12" t="s">
+      <c r="AK4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AK4" s="12" t="s">
+      <c r="AL4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AM4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AM4" s="12" t="s">
+      <c r="AN4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AN4" s="12" t="s">
+      <c r="AO4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AO4" s="12" t="s">
+      <c r="AP4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AP4" s="12" t="s">
+      <c r="AQ4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="12" t="s">
+      <c r="AR4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AR4" s="12" t="s">
+      <c r="AS4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AS4" s="12" t="s">
+      <c r="AT4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AT4" s="12" t="s">
+      <c r="AU4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AU4" s="12" t="s">
+      <c r="AV4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AV4" s="12" t="s">
+      <c r="AW4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AW4" s="12" t="s">
+      <c r="AX4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AX4" s="12" t="s">
+      <c r="AY4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AY4" s="12" t="s">
+      <c r="AZ4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AZ4" s="12" t="s">
+      <c r="BA4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="BA4" s="12" t="s">
+      <c r="BB4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="BB4" s="12" t="s">
+      <c r="BC4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="BC4" s="12" t="s">
+      <c r="BD4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BE4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="BE4" s="12" t="s">
+      <c r="BF4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="BF4" s="12" t="s">
+      <c r="BG4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="BG4" s="12" t="s">
+      <c r="BH4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="BH4" s="12" t="s">
+      <c r="BI4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="BI4" s="12" t="s">
+      <c r="BJ4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="BJ4" s="12" t="s">
+      <c r="BK4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="BK4" s="12" t="s">
+      <c r="BL4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="BL4" s="12" t="s">
+      <c r="BM4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="BM4" s="12" t="s">
+      <c r="BN4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="BN4" s="12" t="s">
+      <c r="BO4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="BO4" s="12" t="s">
+      <c r="BP4" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="BP4" s="12" t="s">
+      <c r="BQ4" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="BQ4" s="12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:69" ht="18" x14ac:dyDescent="0.35">
@@ -1717,7 +1608,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="4">
         <v>43212</v>
@@ -1731,8 +1622,8 @@
         <v>1010</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="16" t="s">
-        <v>33</v>
+      <c r="C16" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="E16" s="4">
         <v>43212</v>
@@ -1746,8 +1637,8 @@
         <v>1011</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="16" t="s">
-        <v>34</v>
+      <c r="C17" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="E17" s="4">
         <v>43212</v>
@@ -1807,7 +1698,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="4">
         <v>43219</v>
@@ -1822,7 +1713,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="4">
         <v>43219</v>
@@ -1869,8 +1760,8 @@
         <v>1019</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="15" t="s">
-        <v>31</v>
+      <c r="C25" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1878,6 +1769,9 @@
         <v>1020</v>
       </c>
       <c r="B26" s="2"/>
+      <c r="C26" s="13" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -1950,8 +1844,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="A3:E3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="J4:BQ4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="A3:E3" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="J4:BQ4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Project Plan/Project Plan.xlsx
+++ b/Project Plan/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NeoThokoa\Documents\University Work\2018\COS 700\Research\StylometricsResearch\Project Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1399697-44E3-4AF0-A80A-ED0B72798454}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797AE040-0223-436F-9E4D-DD062EC74240}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="126">
   <si>
     <t>Project:</t>
   </si>
@@ -332,6 +332,90 @@
   </si>
   <si>
     <t>Learn metaphone algorithms</t>
+  </si>
+  <si>
+    <t>Implement feedback changes from proposal</t>
+  </si>
+  <si>
+    <t>Learn natrual language processing techniques</t>
+  </si>
+  <si>
+    <t>Implement Extracrtion module</t>
+  </si>
+  <si>
+    <t>Set up test email samples that algorithm will learn</t>
+  </si>
+  <si>
+    <t>Test extraction module</t>
+  </si>
+  <si>
+    <t>Implement Stylometric profiles from ML algorithms</t>
+  </si>
+  <si>
+    <t>Construct a run-time stylometric profile module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct a stylometric comparison algorithm module </t>
+  </si>
+  <si>
+    <t>Perform Unit Tests on comparison algorithm module</t>
+  </si>
+  <si>
+    <t>Construct User Interface to block content of message</t>
+  </si>
+  <si>
+    <t>Test UI of message</t>
+  </si>
+  <si>
+    <t>Document findings of results from tests</t>
+  </si>
+  <si>
+    <t>Conduct first draft of research report</t>
+  </si>
+  <si>
+    <t>Integrate final draft of proposal</t>
+  </si>
+  <si>
+    <t>Integrate report findings</t>
+  </si>
+  <si>
+    <t>Review Research Report</t>
+  </si>
+  <si>
+    <t>Integrate sources</t>
+  </si>
+  <si>
+    <t>Conduct Final Paper</t>
+  </si>
+  <si>
+    <t>2 Hours</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>2 Days</t>
+  </si>
+  <si>
+    <t>20 Days</t>
+  </si>
+  <si>
+    <t>8 Days</t>
+  </si>
+  <si>
+    <t>6 Hours</t>
+  </si>
+  <si>
+    <t>4 Days</t>
+  </si>
+  <si>
+    <t>3 Hours</t>
+  </si>
+  <si>
+    <t>1 Hour</t>
+  </si>
+  <si>
+    <t>4 Hours</t>
   </si>
 </sst>
 </file>
@@ -507,7 +591,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
@@ -542,6 +626,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -623,7 +710,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:BQ39" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:BQ50" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="69">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Current Status"/>
@@ -996,24 +1083,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ36"/>
+  <dimension ref="A1:BQ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="69" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1480,7 +1571,7 @@
       <c r="A7">
         <v>1001</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
@@ -1489,21 +1580,30 @@
       </c>
       <c r="F7" s="4">
         <v>43220</v>
+      </c>
+      <c r="G7" s="4">
+        <v>43221</v>
       </c>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1002</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
       <c r="E8" s="4">
         <v>43191</v>
       </c>
       <c r="F8" s="4">
         <v>43210</v>
+      </c>
+      <c r="G8" s="4">
+        <v>43211</v>
       </c>
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.3">
@@ -1514,6 +1614,9 @@
       <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
       <c r="E9" s="4">
         <v>43203</v>
       </c>
@@ -1528,45 +1631,63 @@
       <c r="A10">
         <v>1004</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
       <c r="E10" s="4">
         <v>43210</v>
       </c>
       <c r="F10" s="4">
         <v>43211</v>
+      </c>
+      <c r="G10" s="4">
+        <v>43215</v>
       </c>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1005</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
       <c r="E11" s="4">
         <v>43210</v>
       </c>
       <c r="F11" s="4">
         <v>43210</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43217</v>
       </c>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1006</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
       <c r="E12" s="4">
         <v>43210</v>
       </c>
       <c r="F12" s="4">
         <v>43218</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43220</v>
       </c>
       <c r="H12">
         <v>1002</v>
@@ -1576,165 +1697,231 @@
       <c r="A13">
         <v>1007</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
       <c r="E13" s="4">
         <v>43210</v>
       </c>
       <c r="F13" s="4">
         <v>43212</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43217</v>
       </c>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1008</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
       <c r="E14" s="4">
         <v>43212</v>
       </c>
       <c r="F14" s="4">
         <v>43212</v>
+      </c>
+      <c r="G14" s="4">
+        <v>43218</v>
       </c>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1009</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
       <c r="E15" s="4">
         <v>43212</v>
       </c>
       <c r="F15" s="4">
         <v>43216</v>
+      </c>
+      <c r="G15" s="4">
+        <v>43219</v>
       </c>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1010</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
       <c r="E16" s="4">
         <v>43212</v>
       </c>
       <c r="F16" s="4">
         <v>43212</v>
+      </c>
+      <c r="G16" s="4">
+        <v>43219</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1011</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
       <c r="E17" s="4">
         <v>43212</v>
       </c>
       <c r="F17" s="4">
         <v>43212</v>
+      </c>
+      <c r="G17" s="4">
+        <v>43219</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1012</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
       <c r="E18" s="4">
         <v>43217</v>
       </c>
       <c r="F18" s="4">
         <v>43218</v>
+      </c>
+      <c r="G18" s="4">
+        <v>43220</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1013</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
       <c r="E19" s="4">
         <v>43218</v>
       </c>
       <c r="F19" s="4">
         <v>43218</v>
+      </c>
+      <c r="G19" s="4">
+        <v>43219</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1014</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
       <c r="E20" s="4">
         <v>43218</v>
       </c>
       <c r="F20" s="4">
         <v>43218</v>
+      </c>
+      <c r="G20" s="4">
+        <v>43219</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1015</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="D21" t="s">
+        <v>124</v>
+      </c>
       <c r="E21" s="4">
         <v>43219</v>
       </c>
       <c r="F21" s="4">
         <v>43219</v>
+      </c>
+      <c r="G21" s="4">
+        <v>43220</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1016</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
       <c r="E22" s="4">
         <v>43219</v>
       </c>
       <c r="F22" s="4">
         <v>43219</v>
+      </c>
+      <c r="G22" s="4">
+        <v>43221</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1017</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
       <c r="E23" s="4">
         <v>43220</v>
       </c>
       <c r="F23" s="4">
         <v>43220</v>
+      </c>
+      <c r="G23" s="4">
+        <v>43221</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1759,18 +1946,30 @@
       <c r="A25">
         <v>1019</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="13" t="s">
         <v>96</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43222</v>
+      </c>
+      <c r="F25" s="4">
+        <v>43254</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1020</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="3"/>
       <c r="C26" s="13" t="s">
         <v>97</v>
+      </c>
+      <c r="E26" s="4">
+        <v>43224</v>
+      </c>
+      <c r="F26" s="4">
+        <v>43238</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1778,60 +1977,300 @@
         <v>1021</v>
       </c>
       <c r="B27" s="2"/>
+      <c r="C27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="4">
+        <v>43223</v>
+      </c>
+      <c r="F27" s="4">
+        <v>43226</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1022</v>
       </c>
       <c r="B28" s="2"/>
+      <c r="C28" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="4">
+        <v>43238</v>
+      </c>
+      <c r="F28" s="4">
+        <v>43245</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1023</v>
       </c>
       <c r="B29" s="2"/>
+      <c r="C29" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="4">
+        <v>43245</v>
+      </c>
+      <c r="F29" s="4">
+        <v>43260</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1024</v>
       </c>
       <c r="B30" s="2"/>
+      <c r="C30" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="4">
+        <v>43260</v>
+      </c>
+      <c r="F30" s="4">
+        <v>43261</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1025</v>
       </c>
       <c r="B31" s="2"/>
+      <c r="C31" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43261</v>
+      </c>
+      <c r="F31" s="4">
+        <v>43262</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1026</v>
       </c>
       <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43271</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1027</v>
       </c>
       <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="4">
+        <v>43286</v>
+      </c>
+      <c r="F33" s="4">
+        <v>43291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1028</v>
       </c>
       <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="4">
+        <v>43293</v>
+      </c>
+      <c r="F34" s="4">
+        <v>43300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1029</v>
       </c>
       <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="4">
+        <v>43300</v>
+      </c>
+      <c r="F35" s="4">
+        <v>43301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1030</v>
       </c>
       <c r="B36" s="2"/>
+      <c r="C36" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43301</v>
+      </c>
+      <c r="F36" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1031</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="4">
+        <v>43306</v>
+      </c>
+      <c r="F37" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1032</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43307</v>
+      </c>
+      <c r="F38" s="4">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1033</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="4">
+        <v>43311</v>
+      </c>
+      <c r="F39" s="4">
+        <v>43332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1034</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="4">
+        <v>43311</v>
+      </c>
+      <c r="F40" s="4">
+        <v>43315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1035</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="4">
+        <v>43316</v>
+      </c>
+      <c r="F41" s="4">
+        <v>43326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1036</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="4">
+        <v>43327</v>
+      </c>
+      <c r="F42" s="4">
+        <v>43332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1037</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="4">
+        <v>43332</v>
+      </c>
+      <c r="F43" s="4">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1038</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1039</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1040</v>
+      </c>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1041</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1042</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1043</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1044</v>
+      </c>
+      <c r="B50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
